--- a/va_facility_data_2025-02-20/Tomah VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tomah%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tomah VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tomah%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R4ac53888c14c456f8d088363cea0b9e0"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1ee3b6c8bdb447fe95c41bd639299a8c"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R45dc02d35d3f40af909c6c89cf947c68"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R24a98b6a38c84b6cb886e45d3acf5ada"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rff6bd26813bc4989b184de1a62744e16"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rac81519529f14c48b0e9c7efa5882427"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rca276780031f4681b90aff2e6f45df1f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Re41e47b9a54049939726c31de3270b2c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R40bc5bdc80134698a61f89df5775e2ac"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R64c23305bca440c68654c946ae8958f3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R145a9b6e78cb444fa5e37b90845af3ee"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rfd5e9a7e3574463d968b7f9287d706b7"/>
   </x:sheets>
 </x:workbook>
 </file>
